--- a/source/docs/chuck-max.xlsx
+++ b/source/docs/chuck-max.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa/Downloads/projects/chuck-max/source/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05C32CB-CEC8-4746-BC88-2E967C30C0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147A8832-0C51-134B-AF83-321C727CA354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="1780" windowWidth="15580" windowHeight="19160" xr2:uid="{AC7B1D0C-C459-1645-A640-DA129602DBD5}"/>
+    <workbookView xWindow="5440" yWindow="1780" windowWidth="25140" windowHeight="19160" activeTab="2" xr2:uid="{AC7B1D0C-C459-1645-A640-DA129602DBD5}"/>
   </bookViews>
   <sheets>
-    <sheet name="cm-cheatsheet" sheetId="2" r:id="rId1"/>
+    <sheet name="cm-cheatsheet" sheetId="3" r:id="rId1"/>
     <sheet name="matrix" sheetId="1" r:id="rId2"/>
+    <sheet name="matrix2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="132">
   <si>
     <t>full</t>
   </si>
@@ -171,9 +172,6 @@
     <t>Action</t>
   </si>
   <si>
-    <t>Set file attribute (does not run)</t>
-  </si>
-  <si>
     <t>file &lt;path&gt;</t>
   </si>
   <si>
@@ -427,13 +425,22 @@
   </si>
   <si>
     <t>+ &lt;filepath&gt; [args]</t>
+  </si>
+  <si>
+    <t>Set active file attribute (does not run)</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>advanced</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -492,16 +499,29 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -524,11 +544,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -547,6 +604,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,15 +949,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA60865-9B27-534F-B5E9-9A0FAAEA884F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D93969-61D9-DD4C-A931-48E785FF0349}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,7 +971,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>43</v>
@@ -915,698 +984,728 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>129</v>
-      </c>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>126</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>122</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>125</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>36</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="11"/>
+        <v>35</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>120</v>
+        <v>47</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="12"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="12"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="12"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="D40" s="12"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D41" s="12"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D42" s="12"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D43" s="12"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D44" s="12"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D46" s="12"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D47" s="12"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D50" s="12"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D51" s="12"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D52" s="12"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D53" s="12"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D54" s="12"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D55" s="12"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D56" s="12"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D57" s="12"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="12"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="12"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="12"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D61" s="12"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" s="12"/>
+      <c r="D62" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
@@ -1620,7 +1719,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1937,4 +2036,344 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A190BE2E-7DA4-444E-812B-295C98FC43CF}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/source/docs/chuck-max.xlsx
+++ b/source/docs/chuck-max.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa/Downloads/projects/chuck-max/source/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147A8832-0C51-134B-AF83-321C727CA354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004435F6-8738-4649-AAF1-30B8B4411AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="1780" windowWidth="25140" windowHeight="19160" activeTab="2" xr2:uid="{AC7B1D0C-C459-1645-A640-DA129602DBD5}"/>
+    <workbookView xWindow="3660" yWindow="500" windowWidth="25140" windowHeight="17500" activeTab="2" xr2:uid="{AC7B1D0C-C459-1645-A640-DA129602DBD5}"/>
   </bookViews>
   <sheets>
     <sheet name="cm-cheatsheet" sheetId="3" r:id="rId1"/>
-    <sheet name="matrix" sheetId="1" r:id="rId2"/>
-    <sheet name="matrix2" sheetId="4" r:id="rId3"/>
+    <sheet name="matrix" sheetId="4" r:id="rId2"/>
+    <sheet name="dist" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="141">
   <si>
     <t>full</t>
   </si>
@@ -434,6 +434,33 @@
   </si>
   <si>
     <t>advanced</t>
+  </si>
+  <si>
+    <t>chuck-max</t>
+  </si>
+  <si>
+    <t>&lt;version&gt;</t>
+  </si>
+  <si>
+    <t>&lt;platform&gt;</t>
+  </si>
+  <si>
+    <t>&lt;arch&gt;</t>
+  </si>
+  <si>
+    <t>e.g.</t>
+  </si>
+  <si>
+    <t>chuck-max-0.1.1-darwin-arm64</t>
+  </si>
+  <si>
+    <t>chuck-max-0.1.1-darwin-arm64-&lt;tag&gt;</t>
+  </si>
+  <si>
+    <t>has something missing</t>
+  </si>
+  <si>
+    <t>is a full|brew build (nothing missing)</t>
   </si>
 </sst>
 </file>
@@ -585,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -614,6 +641,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1715,335 +1748,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B851766-B74C-0D41-8B5D-670C41DFEADC}">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A190BE2E-7DA4-444E-812B-295C98FC43CF}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2376,4 +2085,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA4ECA8-21D2-1047-8B3F-22C7A6CED4AD}">
+  <dimension ref="B4:I13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="18"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="18"/>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="18"/>
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="18"/>
+      <c r="C9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/source/docs/chuck-max.xlsx
+++ b/source/docs/chuck-max.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa/Downloads/projects/chuck-max/source/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sa/projects/chuck-max/source/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004435F6-8738-4649-AAF1-30B8B4411AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9411311A-A40F-6149-9813-F911E61F5C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="500" windowWidth="25140" windowHeight="17500" activeTab="2" xr2:uid="{AC7B1D0C-C459-1645-A640-DA129602DBD5}"/>
+    <workbookView xWindow="3660" yWindow="500" windowWidth="25140" windowHeight="17500" activeTab="1" xr2:uid="{AC7B1D0C-C459-1645-A640-DA129602DBD5}"/>
   </bookViews>
   <sheets>
     <sheet name="cm-cheatsheet" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="143">
   <si>
     <t>full</t>
   </si>
@@ -439,9 +439,6 @@
     <t>chuck-max</t>
   </si>
   <si>
-    <t>&lt;version&gt;</t>
-  </si>
-  <si>
     <t>&lt;platform&gt;</t>
   </si>
   <si>
@@ -461,6 +458,15 @@
   </si>
   <si>
     <t>is a full|brew build (nothing missing)</t>
+  </si>
+  <si>
+    <t>&lt;version | short-sha&gt;</t>
+  </si>
+  <si>
+    <t>macos</t>
+  </si>
+  <si>
+    <t>windows</t>
   </si>
 </sst>
 </file>
@@ -631,6 +637,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -645,9 +654,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,10 +1023,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -1175,10 +1181,10 @@
       <c r="D14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
@@ -1289,10 +1295,10 @@
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
@@ -1451,10 +1457,10 @@
       <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
@@ -1749,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A190BE2E-7DA4-444E-812B-295C98FC43CF}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1763,16 +1769,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1988,92 +1994,146 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2091,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA4ECA8-21D2-1047-8B3F-22C7A6CED4AD}">
   <dimension ref="B4:I13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -2100,13 +2160,14 @@
     <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="10.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>130</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2115,34 +2176,34 @@
       <c r="E4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>135</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -2150,7 +2211,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="19" t="s">
         <v>131</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2159,71 +2220,71 @@
       <c r="E6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>135</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>135</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>3</v>
@@ -2231,21 +2292,21 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
